--- a/doc/docs/卡牌表.xlsx
+++ b/doc/docs/卡牌表.xlsx
@@ -4,31 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
+    <workbookView windowHeight="17810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
     <sheet name="CardEffects" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="368">
   <si>
     <t>Cards</t>
   </si>
@@ -168,6 +155,15 @@
     <t>Sunflower</t>
   </si>
   <si>
+    <t>spr_C001Sunflower</t>
+  </si>
+  <si>
+    <t>与豌豆射手触碰后获得+1</t>
+  </si>
+  <si>
+    <t>Gain +1 after touching the Peashooter</t>
+  </si>
+  <si>
     <t>碰到豌豆射手+1</t>
   </si>
   <si>
@@ -177,6 +173,861 @@
     <t>[10002]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>豌豆射手</t>
+  </si>
+  <si>
+    <t>Pea Shooter</t>
+  </si>
+  <si>
+    <t>spr_C002PeaShooter</t>
+  </si>
+  <si>
+    <t>与僵尸触碰后获得+2</t>
+  </si>
+  <si>
+    <t>Gain +2 after touching a zombie</t>
+  </si>
+  <si>
+    <t>碰到僵尸+2</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[10003]</t>
+  </si>
+  <si>
+    <t>倭瓜</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>spr_C003Squash</t>
+  </si>
+  <si>
+    <t>破坏触碰到的僵尸</t>
+  </si>
+  <si>
+    <t>Destroys zombies which is touching</t>
+  </si>
+  <si>
+    <t>破坏碰到的僵尸</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>Zombies</t>
+  </si>
+  <si>
+    <t>spr_C004Zombies</t>
+  </si>
+  <si>
+    <t>自身被破坏时获得+3</t>
+  </si>
+  <si>
+    <t>Gain +3 when self is destroyed</t>
+  </si>
+  <si>
+    <t>被破坏时+3</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>水浒卡</t>
+  </si>
+  <si>
+    <t>Shuihu Cards</t>
+  </si>
+  <si>
+    <t>spr_C005ShuihuCards</t>
+  </si>
+  <si>
+    <t>场上所有的水浒卡使获得+1</t>
+  </si>
+  <si>
+    <t>All Shuihu cards on the field gain +1</t>
+  </si>
+  <si>
+    <t>场上所有的水浒卡+1</t>
+  </si>
+  <si>
+    <t>[10005]</t>
+  </si>
+  <si>
+    <t>奇多卡</t>
+  </si>
+  <si>
+    <t>Chidoka</t>
+  </si>
+  <si>
+    <t>spr_C006Chidoka</t>
+  </si>
+  <si>
+    <t>场上所有的奇多卡+1</t>
+  </si>
+  <si>
+    <t>[10006]</t>
+  </si>
+  <si>
+    <t>红桃</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>spr_C007Heart</t>
+  </si>
+  <si>
+    <t>碰到的红桃或方片时，获得+1</t>
+  </si>
+  <si>
+    <t>Touching a heart or diamond, get +1</t>
+  </si>
+  <si>
+    <t>碰到的红桃或方片+1</t>
+  </si>
+  <si>
+    <t>[10007,10008]</t>
+  </si>
+  <si>
+    <t>方片</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>spr_C008Diamond</t>
+  </si>
+  <si>
+    <t>草花</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>spr_C009Club</t>
+  </si>
+  <si>
+    <t>碰到的黑桃或草花时，获得+1</t>
+  </si>
+  <si>
+    <t>Touching a spade or club, gain +1</t>
+  </si>
+  <si>
+    <t>碰到的黑桃或草花+1</t>
+  </si>
+  <si>
+    <t>[10009,10010]</t>
+  </si>
+  <si>
+    <t>黑桃</t>
+  </si>
+  <si>
+    <t>Spade</t>
+  </si>
+  <si>
+    <t>spr_C010Spade</t>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>Sun Wukong</t>
+  </si>
+  <si>
+    <t>spr_C011SunWukong</t>
+  </si>
+  <si>
+    <t>唐三藏</t>
+  </si>
+  <si>
+    <t>Tang Sanzang</t>
+  </si>
+  <si>
+    <t>spr_C012TangSanzang</t>
+  </si>
+  <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
+    <t>Zhu Bajie</t>
+  </si>
+  <si>
+    <t>spr_C013ZhuBajie</t>
+  </si>
+  <si>
+    <t>沙悟净</t>
+  </si>
+  <si>
+    <t>Sha Wujing</t>
+  </si>
+  <si>
+    <t>spr_C014ShaWujing</t>
+  </si>
+  <si>
+    <t>白龙马</t>
+  </si>
+  <si>
+    <t>Bai Longma</t>
+  </si>
+  <si>
+    <t>spr_C015BaiLongma</t>
+  </si>
+  <si>
+    <t>红鸟</t>
+  </si>
+  <si>
+    <t>Angry Bird</t>
+  </si>
+  <si>
+    <t>spr_C016AngryBird</t>
+  </si>
+  <si>
+    <t>破坏触碰到的绿猪</t>
+  </si>
+  <si>
+    <t>Destroys any green pigs it touches</t>
+  </si>
+  <si>
+    <t>[10020]</t>
+  </si>
+  <si>
+    <t>黄鸟</t>
+  </si>
+  <si>
+    <t>Speed Bird</t>
+  </si>
+  <si>
+    <t>spr_C017SpeedBird</t>
+  </si>
+  <si>
+    <t>黑鸟</t>
+  </si>
+  <si>
+    <t>Bombbird</t>
+  </si>
+  <si>
+    <t>spr_C018Bombbird</t>
+  </si>
+  <si>
+    <t>蓝鸟</t>
+  </si>
+  <si>
+    <t>Copybird</t>
+  </si>
+  <si>
+    <t>spr_C019Copybird</t>
+  </si>
+  <si>
+    <t>10%概率自我复制，破坏触碰到的绿猪</t>
+  </si>
+  <si>
+    <t>绿猪</t>
+  </si>
+  <si>
+    <t>Green Pig</t>
+  </si>
+  <si>
+    <t>spr_C020GreenPig</t>
+  </si>
+  <si>
+    <t>自身被破坏时获得+4</t>
+  </si>
+  <si>
+    <t>Gain +4 when self is destroyed</t>
+  </si>
+  <si>
+    <t>被破坏时+4</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>spr_C021bomb</t>
+  </si>
+  <si>
+    <t>查德（胖虎）</t>
+  </si>
+  <si>
+    <t>Chad (Fat Tiger)</t>
+  </si>
+  <si>
+    <t>spr_C022Chad(FatTiger)</t>
+  </si>
+  <si>
+    <t>光盘</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>spr_C023Disk</t>
+  </si>
+  <si>
+    <t>软盘</t>
+  </si>
+  <si>
+    <t>Floppy disk</t>
+  </si>
+  <si>
+    <t>spr_C024Floppydisk</t>
+  </si>
+  <si>
+    <t>磁带</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>spr_C025Tape</t>
+  </si>
+  <si>
+    <t>小霸王学习机</t>
+  </si>
+  <si>
+    <t>FamiCom</t>
+  </si>
+  <si>
+    <t>spr_C026FamiCom</t>
+  </si>
+  <si>
+    <t>超级玛丽</t>
+  </si>
+  <si>
+    <t>Super Marry</t>
+  </si>
+  <si>
+    <t>spr_C027SuperMarry</t>
+  </si>
+  <si>
+    <t>碰到小霸王学习机时，获得+2</t>
+  </si>
+  <si>
+    <t>Touching a FamiCom, gain +2</t>
+  </si>
+  <si>
+    <t>碰到小霸王学习机+2</t>
+  </si>
+  <si>
+    <t>[10026]</t>
+  </si>
+  <si>
+    <t>魂斗萝</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>spr_C028Contra</t>
+  </si>
+  <si>
+    <t>坦克决战</t>
+  </si>
+  <si>
+    <t>Tank Battle</t>
+  </si>
+  <si>
+    <t>spr_C029TankBattle</t>
+  </si>
+  <si>
+    <t>机器狗</t>
+  </si>
+  <si>
+    <t>Robot Dog</t>
+  </si>
+  <si>
+    <t>spr_C030RobotDog</t>
+  </si>
+  <si>
+    <t>无效化所有触碰的诅咒卡</t>
+  </si>
+  <si>
+    <t>投篮高手</t>
+  </si>
+  <si>
+    <t>Shooting Master</t>
+  </si>
+  <si>
+    <t>spr_C031ShootingMaster</t>
+  </si>
+  <si>
+    <t>每经过3回合，获得+2</t>
+  </si>
+  <si>
+    <t>After every 3 rounds, gain +2</t>
+  </si>
+  <si>
+    <t>每3回合+2</t>
+  </si>
+  <si>
+    <t>足球小帅</t>
+  </si>
+  <si>
+    <t>Football Boy</t>
+  </si>
+  <si>
+    <t>spr_C032FootballBoy</t>
+  </si>
+  <si>
+    <t>每经过2回合，获得+1</t>
+  </si>
+  <si>
+    <t>After every 2 rounds, gain +1</t>
+  </si>
+  <si>
+    <t>每2回合+1</t>
+  </si>
+  <si>
+    <t>阿重木</t>
+  </si>
+  <si>
+    <t>Ajumu</t>
+  </si>
+  <si>
+    <t>spr_C033Ajumu</t>
+  </si>
+  <si>
+    <t>每经过2回合，获得永久+1</t>
+  </si>
+  <si>
+    <t>After every 2 rounds, gain permanent +1</t>
+  </si>
+  <si>
+    <t>每2回合永久+1</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>spr_C034John</t>
+  </si>
+  <si>
+    <t>人类，每经过2回合获得自身永久+1</t>
+  </si>
+  <si>
+    <t>Human, every 2 rounds, gain permanent +1</t>
+  </si>
+  <si>
+    <t>人类，每2回合自身永久+1</t>
+  </si>
+  <si>
+    <t>[10039,10040,10041,10042,10043,10044]</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>spr_C035Ann</t>
+  </si>
+  <si>
+    <t>人类，每销毁1个食物额外获得+2</t>
+  </si>
+  <si>
+    <t>Human, gain +2 for each food destroyed</t>
+  </si>
+  <si>
+    <t>人类，每销毁1个食物额外+2</t>
+  </si>
+  <si>
+    <t>小华</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>spr_C036Tom</t>
+  </si>
+  <si>
+    <t>人类，每销毁1个食物获得永久+1</t>
+  </si>
+  <si>
+    <t>Human, gain permanent +1 for each food destroyed</t>
+  </si>
+  <si>
+    <t>人类，每销毁1个食物自身永久+1</t>
+  </si>
+  <si>
+    <t>丹霞</t>
+  </si>
+  <si>
+    <t>Danxia</t>
+  </si>
+  <si>
+    <t>spr_C037Danxia</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>锐锐</t>
+  </si>
+  <si>
+    <t>Ruirui</t>
+  </si>
+  <si>
+    <t>spr_C038Ruirui</t>
+  </si>
+  <si>
+    <t>旺仔午奶</t>
+  </si>
+  <si>
+    <t>Wangzai Milk</t>
+  </si>
+  <si>
+    <t>spr_C039WangzaiMilk</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁自身并获得+3</t>
+  </si>
+  <si>
+    <t>Food, destroys itself upon touching a human and gains +3</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁，+3</t>
+  </si>
+  <si>
+    <t>冰糖葫芦</t>
+  </si>
+  <si>
+    <t>Candied Haws</t>
+  </si>
+  <si>
+    <t>spr_C040CandiedHaws</t>
+  </si>
+  <si>
+    <t>大白免奶糖</t>
+  </si>
+  <si>
+    <t>White Rabbit Candy</t>
+  </si>
+  <si>
+    <t>spr_C041WhiteRabbitCandy</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁自身并获得+2</t>
+  </si>
+  <si>
+    <t>Food, destroys itself upon touching a human and gains +2</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁，+2</t>
+  </si>
+  <si>
+    <t>黄桃罐头</t>
+  </si>
+  <si>
+    <t>Canned yellow peach</t>
+  </si>
+  <si>
+    <t>spr_C042Cannedyellowpeach</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁自身并获得+5</t>
+  </si>
+  <si>
+    <t>Food, destroys itself when touching a human and gains +5</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁，+5</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>建力宝</t>
+  </si>
+  <si>
+    <t>Jianlibao</t>
+  </si>
+  <si>
+    <t>spr_C043Jianlibao</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁自身并获得+4</t>
+  </si>
+  <si>
+    <t>Food, destroys itself upon touching a human and gains +4</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁，+4</t>
+  </si>
+  <si>
+    <t>老冰棍</t>
+  </si>
+  <si>
+    <t>Old Popsicle</t>
+  </si>
+  <si>
+    <t>spr_C044OldPopsicle</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁自身并获得+1</t>
+  </si>
+  <si>
+    <t>Food, destroys itself upon touching a human and gains +1</t>
+  </si>
+  <si>
+    <t>食物，碰到人类销毁，+1</t>
+  </si>
+  <si>
+    <t>摔炮</t>
+  </si>
+  <si>
+    <t>Firecrackers</t>
+  </si>
+  <si>
+    <t>spr_C045Firecrackers</t>
+  </si>
+  <si>
+    <t>等待1回合后销毁并获得+2</t>
+  </si>
+  <si>
+    <t>After waiting 1 round, destroyed itself and gains +2</t>
+  </si>
+  <si>
+    <t>一回合后销毁，+2</t>
+  </si>
+  <si>
+    <t>大地雷</t>
+  </si>
+  <si>
+    <t>Big Bomb</t>
+  </si>
+  <si>
+    <t>spr_C046BigBomb</t>
+  </si>
+  <si>
+    <t>等待3回合后销毁并获得+10</t>
+  </si>
+  <si>
+    <t>After waiting 3 turns, destroyed itself and gains +10</t>
+  </si>
+  <si>
+    <t>三回合后销毁，+10</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>二踢脚</t>
+  </si>
+  <si>
+    <t>Double kick</t>
+  </si>
+  <si>
+    <t>spr_C047Doublekick</t>
+  </si>
+  <si>
+    <t>等待3回合后销毁并获得+5，然后变为大地雷</t>
+  </si>
+  <si>
+    <t>After waiting 3 turns, destroyed itself and gains +5, then becomes a Big Bomb</t>
+  </si>
+  <si>
+    <t>三回合后销毁，+5，变为大地雷</t>
+  </si>
+  <si>
+    <t>[10046]</t>
+  </si>
+  <si>
+    <t>窜天猴</t>
+  </si>
+  <si>
+    <t>Firework</t>
+  </si>
+  <si>
+    <t>spr_C048Firework</t>
+  </si>
+  <si>
+    <t>等待2回合后销毁并获得+4</t>
+  </si>
+  <si>
+    <t>After every 2 turns, destroyed itself and gains +4</t>
+  </si>
+  <si>
+    <t>二回合后销毁，+4</t>
+  </si>
+  <si>
+    <t>烟花盒子</t>
+  </si>
+  <si>
+    <t>Fireworks Box</t>
+  </si>
+  <si>
+    <t>spr_C049FireworksBox</t>
+  </si>
+  <si>
+    <t>每回合生成1个窜天猴</t>
+  </si>
+  <si>
+    <t>Generate 1 Firework every 1 round</t>
+  </si>
+  <si>
+    <t>每回合生成一个窜天猴</t>
+  </si>
+  <si>
+    <t>[10048]</t>
+  </si>
+  <si>
+    <t>东西南北</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>spr_C050NEWS</t>
+  </si>
+  <si>
+    <t>随机获得1~4</t>
+  </si>
+  <si>
+    <t>Randomly get 1~4</t>
+  </si>
+  <si>
+    <t>获得随机1~4</t>
+  </si>
+  <si>
+    <t>四驱车</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>spr_C0514WD</t>
+  </si>
+  <si>
+    <t>街机币</t>
+  </si>
+  <si>
+    <t>Arcade Coins</t>
+  </si>
+  <si>
+    <t>spr_C052ArcadeCoins</t>
+  </si>
+  <si>
+    <t>动员兵</t>
+  </si>
+  <si>
+    <t>Conscripted soldiers</t>
+  </si>
+  <si>
+    <t>spr_C053Conscriptedsoldiers</t>
+  </si>
+  <si>
+    <t>光棱坦克</t>
+  </si>
+  <si>
+    <t>Prism Tank</t>
+  </si>
+  <si>
+    <t>spr_C054PrismTank</t>
+  </si>
+  <si>
+    <t>基地车</t>
+  </si>
+  <si>
+    <t>Base vehicle</t>
+  </si>
+  <si>
+    <t>spr_C055Basevehicle</t>
+  </si>
+  <si>
+    <t>水晶弹珠</t>
+  </si>
+  <si>
+    <t>Crystal Marbles</t>
+  </si>
+  <si>
+    <t>spr_C056CrystalMarbles</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>spr_C057Rock</t>
+  </si>
+  <si>
+    <t>破坏碰到的剪刀并将其变为布，被销毁时获得+2</t>
+  </si>
+  <si>
+    <t>Destroys Scissors it touches and turns them into Paper, gaining +2 when destroyed</t>
+  </si>
+  <si>
+    <t>破坏碰到的剪刀，将其变为布，被销毁时+2</t>
+  </si>
+  <si>
+    <t>[10058]</t>
+  </si>
+  <si>
+    <t>[10059]</t>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>spr_C058Scissors</t>
+  </si>
+  <si>
+    <t>破坏碰到的布并将其变为石头，被销毁时获得+2</t>
+  </si>
+  <si>
+    <t>Destroys Paper it touches and turns them into Rock, gaining +2 when destroyed</t>
+  </si>
+  <si>
+    <t>破坏碰到的布，将其变为石头，被销毁时+2</t>
+  </si>
+  <si>
+    <t>[10057]</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>spr_C059Paper</t>
+  </si>
+  <si>
+    <t>破坏碰到的石头并将其变为剪刀，被销毁时获得+2</t>
+  </si>
+  <si>
+    <t>Destroys Rocks it touches and turns them into Scissors, gaining +2 when destroyed</t>
+  </si>
+  <si>
+    <t>破坏碰到的石头，将其变为剪刀，被销毁时+2</t>
+  </si>
+  <si>
     <t>CardEffects</t>
   </si>
   <si>
@@ -186,6 +1037,9 @@
     <t>effect#string</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>固定数值</t>
   </si>
   <si>
@@ -199,24 +1053,139 @@
   </si>
   <si>
     <t>与id=%相邻时，自身数值永久+【临接数量】*$</t>
+  </si>
+  <si>
+    <t>临接销毁</t>
+  </si>
+  <si>
+    <t>从卡组中销毁所有id=[1]的相邻，本回合收益+[0]</t>
+  </si>
+  <si>
+    <t>临接销毁成长</t>
+  </si>
+  <si>
+    <t>从卡组中销毁所有id=[1]的相邻，自身数值永久+[临接数量]*[0]</t>
+  </si>
+  <si>
+    <t>临接销毁生成</t>
+  </si>
+  <si>
+    <t>从卡组中销毁所有id=[1]的相邻，卡组中加入[临接数量]*id=[2]的新卡牌</t>
+  </si>
+  <si>
+    <t>周期收益</t>
+  </si>
+  <si>
+    <t>每隔[1]回合后，本回合收益+[0]</t>
+  </si>
+  <si>
+    <t>周期提升</t>
+  </si>
+  <si>
+    <t>每隔[1]回合后，自身数值永久+[0]</t>
+  </si>
+  <si>
+    <t>周期生成</t>
+  </si>
+  <si>
+    <t>每隔[1]回合后，卡组中加入id=[2]的新卡牌</t>
+  </si>
+  <si>
+    <t>定时销毁</t>
+  </si>
+  <si>
+    <t>等待[1]回合后，从卡组中销毁自身</t>
+  </si>
+  <si>
+    <t>销毁收益</t>
+  </si>
+  <si>
+    <t>被销毁时本回合收益+[0]</t>
+  </si>
+  <si>
+    <t>销毁生成</t>
+  </si>
+  <si>
+    <t>被销毁时，卡组中加入id=[2]的新卡牌</t>
+  </si>
+  <si>
+    <t>范围随机</t>
+  </si>
+  <si>
+    <t>本回合收益在[0]&lt;=x&lt;=[1]的范围内随机</t>
+  </si>
+  <si>
+    <t>全场重复增益</t>
+  </si>
+  <si>
+    <t>场上每存在除自身之外的id=[1]的卡牌，本回合收益+[存在数量]*[0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +1202,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,21 +1249,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,39 +1299,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF939393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,7 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +1386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,18 +1434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,31 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,19 +1470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,12 +1494,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,6 +1511,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,21 +1558,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,204 +1616,252 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1129,270 +2124,3916 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="17" width="13.125" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9.62727272727273" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.8727272727273" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.3727272727273" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.8181818181818" style="3" customWidth="1"/>
+    <col min="8" max="8" width="71.6363636363636" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.9090909090909" style="4" customWidth="1"/>
+    <col min="10" max="22" width="13" style="3" customWidth="1"/>
+    <col min="23" max="28" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="8" spans="1:33">
+      <c r="A8" s="3">
         <v>10001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J8">
+      <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="9">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
+      <c r="K8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="9">
+        <v>101</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="9">
+        <v>103</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="9">
+        <v>301</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9">
+        <v>901</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="9">
+        <v>901</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="9">
+        <v>10007</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="9">
+        <v>101</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="9">
+        <v>101</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="9">
+        <v>101</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="9">
+        <v>101</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="9">
+        <v>10013</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="9">
+        <v>10015</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="9">
+        <v>10016</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="9">
+        <v>103</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="9">
+        <v>10017</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="9">
+        <v>103</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="9">
+        <v>10018</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="9">
+        <v>103</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="9">
+        <v>10019</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="9">
+        <v>103</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="9">
+        <v>10020</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="9">
+        <v>301</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="9">
+        <v>10021</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="9">
+        <v>10022</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="9">
+        <v>10023</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="9">
+        <v>10024</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="9">
+        <v>10025</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="9">
+        <v>10026</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="9">
+        <v>10027</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="9">
+        <v>101</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="9">
+        <v>10028</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="9">
+        <v>101</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" s="9">
+        <v>10029</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="9">
+        <v>101</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37" s="9">
+        <v>10030</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38" s="9">
+        <v>10031</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="9">
+        <v>201</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39" s="9">
+        <v>10032</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="9">
+        <v>201</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40" s="9">
+        <v>10033</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="9">
+        <v>202</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="9">
+        <v>10034</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" s="9">
+        <v>201</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N41" s="3">
+        <v>103</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="A42" s="9">
+        <v>10035</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="3">
+        <v>103</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43" s="9">
+        <v>10036</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J43" s="9">
+        <v>104</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="3">
+        <v>103</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44" s="9">
+        <v>10037</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="3">
+        <v>103</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45" s="9">
+        <v>10038</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="3">
+        <v>103</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46" s="9">
+        <v>10039</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J46" s="9">
+        <v>301</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47" s="9">
+        <v>10040</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="9">
+        <v>301</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="A48" s="9">
+        <v>10041</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" s="9">
+        <v>301</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49" s="9">
+        <v>10042</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" s="9">
+        <v>301</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" s="9">
+        <v>10043</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" s="9">
+        <v>301</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51" s="9">
+        <v>10044</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J51" s="9">
+        <v>301</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" s="9">
+        <v>10045</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J52" s="9">
+        <v>204</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" s="3">
+        <v>301</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53" s="9">
+        <v>10046</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="9">
+        <v>204</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N53" s="3">
+        <v>301</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" s="9">
+        <v>10047</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" s="9">
+        <v>204</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="3">
+        <v>301</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" s="3">
+        <v>302</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="9">
+        <v>10048</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J55" s="9">
+        <v>204</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="3">
+        <v>301</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" s="9">
+        <v>10049</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="9">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="9">
+        <v>203</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="9">
+        <v>10050</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" s="9">
+        <v>401</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58" s="9">
+        <v>10051</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" s="9">
+        <v>10052</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" s="9">
+        <v>10053</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61" s="9">
+        <v>10054</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62" s="9">
+        <v>10055</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63" s="9">
+        <v>10056</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="9">
+        <v>3</v>
+      </c>
+      <c r="E63" s="9">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64" s="9">
+        <v>10057</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="J64" s="9">
+        <v>105</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N64" s="3">
+        <v>301</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+    </row>
+    <row r="65" ht="42" spans="1:33">
+      <c r="A65" s="9">
+        <v>10058</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J65" s="9">
+        <v>105</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N65" s="3">
+        <v>301</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+    </row>
+    <row r="66" spans="1:33">
+      <c r="A66" s="9">
+        <v>10059</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J66" s="9">
+        <v>105</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N66" s="3">
+        <v>301</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,22 +6045,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="1" max="1" width="12.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="13.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="57.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1430,10 +6071,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1456,9 +6097,11 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1466,10 +6109,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1477,10 +6120,131 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>201</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>202</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>203</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>204</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>301</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>302</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>401</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>901</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/doc/docs/卡牌表.xlsx
+++ b/doc/docs/卡牌表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810" activeTab="1"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
     <sheet name="CardEffects" sheetId="2" r:id="rId2"/>
+    <sheet name="IniCard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="376">
   <si>
     <t>Cards</t>
   </si>
@@ -95,6 +96,9 @@
     <t>英文名</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -1037,6 +1041,18 @@
     <t>effect#string</t>
   </si>
   <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>额外收益</t>
+  </si>
+  <si>
+    <t>销毁</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -1119,6 +1135,15 @@
   </si>
   <si>
     <t>场上每存在除自身之外的id=[1]的卡牌，本回合收益+[存在数量]*[0]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cardid</t>
+  </si>
+  <si>
+    <t>cardname</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1774,6 +1799,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1783,17 +1811,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1801,11 +1826,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2124,10 +2155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2135,13 +2166,14 @@
     <col min="1" max="1" width="9.62727272727273" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.8727272727273" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.3727272727273" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.8181818181818" style="3" customWidth="1"/>
-    <col min="8" max="8" width="71.6363636363636" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.9090909090909" style="4" customWidth="1"/>
-    <col min="10" max="22" width="13" style="3" customWidth="1"/>
-    <col min="23" max="28" width="9" style="3"/>
+    <col min="4" max="4" width="10.4545454545455" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" customWidth="1"/>
+    <col min="8" max="8" width="49.8181818181818" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.6363636363636" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.9090909090909" style="5" customWidth="1"/>
+    <col min="11" max="23" width="13" style="3" customWidth="1"/>
+    <col min="24" max="29" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2152,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2162,58 +2194,59 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2222,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2232,9 +2265,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -2247,10 +2278,10 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="3">
@@ -2286,8 +2317,11 @@
       <c r="U5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2331,7 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2312,10 +2346,10 @@
       <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2351,27 +2385,30 @@
       <c r="U7" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="V7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="3">
         <v>10001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2380,11 +2417,11 @@
       <c r="I8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8">
         <v>101</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>51</v>
@@ -2392,50 +2429,53 @@
       <c r="M8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>52</v>
+      <c r="N8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="3">
         <v>10002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3">
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -2444,126 +2484,132 @@
       <c r="I9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="8">
         <v>101</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC9" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="3">
         <v>10003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="8">
         <v>103</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="3">
         <v>10004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3">
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2572,62 +2618,65 @@
       <c r="I11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="8">
         <v>301</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="3">
         <v>10005</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3">
+      <c r="C12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -2636,910 +2685,950 @@
       <c r="I12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="8">
         <v>901</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC12" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="9">
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="8">
         <v>10006</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="13"/>
+      <c r="J13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="8">
         <v>901</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC13" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="9">
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="8">
         <v>10007</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="9">
+        <v>89</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="8">
         <v>101</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>52</v>
+        <v>94</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC14" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="9">
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="8">
         <v>10008</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="8">
+        <v>101</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="9">
-        <v>101</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>52</v>
+      <c r="N15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC15" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="9">
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="8">
         <v>10009</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="9">
+        <v>99</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="8">
         <v>101</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC16" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="9">
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="8">
         <v>10010</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="8">
+        <v>101</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="9">
-        <v>101</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>52</v>
+      <c r="N17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC17" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="9">
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="8">
         <v>10011</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="9">
+        <v>109</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I18" s="13"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="9">
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="8">
         <v>10012</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="9">
+        <v>112</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I19" s="13"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC19" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="9">
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="8">
         <v>10013</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="9">
+        <v>115</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I20" s="13"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC20" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="9">
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="8">
         <v>10014</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="9">
+        <v>118</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I21" s="13"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC21" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="9">
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="8">
         <v>10015</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="9">
+        <v>121</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="8">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I22" s="13"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC22" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="9">
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="8">
         <v>10016</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="8">
         <v>103</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>52</v>
+        <v>128</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC23" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="9">
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="8">
         <v>10017</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="8">
+        <v>103</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="9">
-        <v>103</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>52</v>
+      <c r="N24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC24" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="9">
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="8">
         <v>10018</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="I25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="8">
         <v>103</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="L25" s="3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>52</v>
+        <v>128</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC25" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="9">
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="8">
         <v>10019</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="D26" s="10">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="13"/>
+      <c r="J26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="8">
         <v>103</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>52</v>
+        <v>128</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC26" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="A27" s="9">
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="8">
         <v>10020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
+        <v>140</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -3548,648 +3637,675 @@
       <c r="I27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="8">
         <v>301</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC27" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="1:33">
-      <c r="A28" s="9">
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="8">
         <v>10021</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="C28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
         <v>-1</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I28" s="13"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC28" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="1:33">
-      <c r="A29" s="9">
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="8">
         <v>10022</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="C29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
         <v>-3</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I29" s="13"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC29" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="1:33">
-      <c r="A30" s="9">
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="8">
         <v>10023</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="9">
+      <c r="C30" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I30" s="13"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC30" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="A31" s="9">
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="8">
         <v>10024</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="9">
+        <v>156</v>
+      </c>
+      <c r="D31" s="13">
         <v>2</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="6"/>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I31" s="13"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC31" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="A32" s="9">
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="8">
         <v>10025</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I32" s="13"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC32" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-    </row>
-    <row r="33" spans="1:33">
-      <c r="A33" s="9">
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="8">
         <v>10026</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="9">
+        <v>162</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="8">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I33" s="13"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC33" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" s="9">
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="8">
         <v>10027</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="8">
         <v>101</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L34" s="3" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC34" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-    </row>
-    <row r="35" spans="1:33">
-      <c r="A35" s="9">
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="8">
         <v>10028</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="8">
+        <v>101</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="9">
-        <v>101</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>52</v>
+      <c r="N35" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC35" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" s="9">
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="8">
         <v>10029</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="8">
         <v>101</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC36" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" s="9">
+      <c r="AH36" s="3"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="8">
         <v>10030</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="D37" s="10">
+        <v>4</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC37" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" s="9">
+      <c r="AH37" s="3"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="8">
         <v>10031</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="9">
+        <v>182</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="9">
+      <c r="F38" s="8">
         <v>2</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="3" t="s">
         <v>183</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -4198,62 +4314,65 @@
       <c r="I38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K38" s="8">
         <v>201</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC38" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-    </row>
-    <row r="39" spans="1:33">
-      <c r="A39" s="9">
+      <c r="AH38" s="3"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="8">
         <v>10032</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="9">
+        <v>188</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
         <v>2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="F39" s="8">
         <v>2</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="3" t="s">
         <v>189</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -4262,62 +4381,65 @@
       <c r="I39" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="8">
         <v>201</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC39" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="A40" s="9">
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="8">
         <v>10033</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="9">
+        <v>194</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="8">
         <v>3</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="3" t="s">
         <v>195</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -4326,1716 +4448,1801 @@
       <c r="I40" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="8">
         <v>202</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC40" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="9">
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="8">
         <v>10034</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="9">
+        <v>200</v>
+      </c>
+      <c r="D41" s="13">
         <v>2</v>
       </c>
-      <c r="E41" s="9">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="11" t="s">
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="8">
         <v>201</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" s="3">
+        <v>60</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41" s="3">
         <v>103</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>52</v>
+        <v>205</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC41" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-    </row>
-    <row r="42" spans="1:33">
-      <c r="A42" s="9">
+      <c r="AH41" s="3"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="8">
         <v>10035</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="3">
+        <v>103</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N42" s="3">
-        <v>103</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>52</v>
+      <c r="R42" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC42" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="1:33">
-      <c r="A43" s="9">
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="8">
         <v>10036</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="9">
+        <v>213</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3</v>
+      </c>
+      <c r="E43" s="8">
         <v>2</v>
       </c>
-      <c r="E43" s="9">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" s="8">
         <v>104</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N43" s="3">
+        <v>205</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="3">
         <v>103</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P43" s="3" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>52</v>
+        <v>205</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC43" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-    </row>
-    <row r="44" spans="1:33">
-      <c r="A44" s="9">
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="8">
         <v>10037</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="9">
+        <v>219</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
         <v>3</v>
       </c>
-      <c r="E44" s="9">
+      <c r="F44" s="8">
         <v>4</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I44" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K44" s="7"/>
       <c r="L44" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N44" s="3">
+        <v>53</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="3">
         <v>103</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P44" s="3" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>52</v>
+        <v>205</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC44" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-    </row>
-    <row r="45" spans="1:33">
-      <c r="A45" s="9">
+      <c r="AH44" s="3"/>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="8">
         <v>10038</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2</v>
+      </c>
+      <c r="E45" s="8">
+        <v>3</v>
+      </c>
+      <c r="F45" s="8">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="J45" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="K45" s="7"/>
       <c r="L45" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N45" s="3">
+        <v>53</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="3">
         <v>103</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P45" s="3" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>52</v>
+        <v>205</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC45" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-    </row>
-    <row r="46" spans="1:33">
-      <c r="A46" s="9">
+      <c r="AH45" s="3"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="8">
         <v>10039</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
+        <v>227</v>
+      </c>
+      <c r="D46" s="13">
         <v>2</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K46" s="8">
         <v>301</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC46" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-    </row>
-    <row r="47" spans="1:33">
-      <c r="A47" s="9">
+      <c r="AH46" s="3"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="8">
         <v>10040</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="K47" s="8">
         <v>301</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC47" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-    </row>
-    <row r="48" spans="1:33">
-      <c r="A48" s="9">
+      <c r="AH47" s="3"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="8">
         <v>10041</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K48" s="8">
         <v>301</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC48" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-    </row>
-    <row r="49" spans="1:33">
-      <c r="A49" s="9">
+      <c r="AH48" s="3"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="8">
         <v>10042</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
+        <v>242</v>
+      </c>
+      <c r="D49" s="13">
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" s="8">
         <v>301</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC49" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-    </row>
-    <row r="50" spans="1:33">
-      <c r="A50" s="9">
+      <c r="AH49" s="3"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="8">
         <v>10043</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="K50" s="8">
         <v>301</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC50" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-    </row>
-    <row r="51" spans="1:33">
-      <c r="A51" s="9">
+      <c r="AH50" s="3"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="8">
         <v>10044</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="9">
+        <v>255</v>
+      </c>
+      <c r="D51" s="13">
         <v>2</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>2</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="8">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="K51" s="8">
         <v>301</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC51" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-    </row>
-    <row r="52" spans="1:33">
-      <c r="A52" s="9">
+      <c r="AH51" s="3"/>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="8">
         <v>10045</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
+        <v>261</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" s="8">
         <v>204</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N52" s="3">
+        <v>51</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="3">
         <v>301</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P52" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC52" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-    </row>
-    <row r="53" spans="1:33">
-      <c r="A53" s="9">
+      <c r="AH52" s="3"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="8">
         <v>10046</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
+        <v>267</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7">
         <v>0</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K53" s="8">
         <v>204</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N53" s="3">
+        <v>75</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O53" s="3">
         <v>301</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P53" s="3" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>52</v>
+        <v>272</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC53" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
-    </row>
-    <row r="54" spans="1:33">
-      <c r="A54" s="9">
+      <c r="AH53" s="3"/>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="8">
         <v>10047</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D54" s="9">
+        <v>274</v>
+      </c>
+      <c r="D54" s="13">
+        <v>3</v>
+      </c>
+      <c r="E54" s="8">
         <v>2</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="7">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="8">
         <v>204</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="3">
+        <v>75</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54" s="3">
         <v>301</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P54" s="3" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="3">
+        <v>247</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S54" s="3">
         <v>302</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="T54" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC54" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
-    </row>
-    <row r="55" spans="1:33">
-      <c r="A55" s="9">
+      <c r="AH54" s="3"/>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="8">
         <v>10048</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
+        <v>281</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
         <v>0</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="K55" s="8">
         <v>204</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55" s="3">
+        <v>60</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55" s="3">
         <v>301</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P55" s="3" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC55" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
-    </row>
-    <row r="56" spans="1:33">
-      <c r="A56" s="9">
+      <c r="AH55" s="3"/>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="8">
         <v>10049</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D56" s="9">
+        <v>287</v>
+      </c>
+      <c r="D56" s="13">
         <v>3</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="8">
+        <v>3</v>
+      </c>
+      <c r="F56" s="7">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" s="8">
         <v>203</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC56" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
-    </row>
-    <row r="57" spans="1:33">
-      <c r="A57" s="9">
+      <c r="AH56" s="3"/>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="8">
         <v>10050</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="9">
+        <v>294</v>
+      </c>
+      <c r="D57" s="13">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="8">
         <v>401</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L57" s="3" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC57" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-    </row>
-    <row r="58" spans="1:33">
-      <c r="A58" s="9">
+      <c r="AH57" s="3"/>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="8">
         <v>10051</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="9">
+        <v>300</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8">
         <v>2</v>
       </c>
-      <c r="E58" s="9">
+      <c r="F58" s="8">
         <v>2</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I58" s="13"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC58" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" s="9">
+      <c r="AH58" s="3"/>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="8">
         <v>10052</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I59" s="13"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC59" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" s="9">
+      <c r="AH59" s="3"/>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="8">
         <v>10053</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D60" s="9">
-        <v>1</v>
-      </c>
-      <c r="E60" s="9">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I60" s="13"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC60" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="A61" s="9">
+      <c r="AH60" s="3"/>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="8">
         <v>10054</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D61" s="9">
+        <v>309</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
         <v>2</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="8">
         <v>2</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I61" s="13"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC61" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
-    </row>
-    <row r="62" spans="1:33">
-      <c r="A62" s="9">
+      <c r="AH61" s="3"/>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="8">
         <v>10055</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" s="9">
+        <v>312</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
         <v>3</v>
       </c>
-      <c r="E62" s="9">
+      <c r="F62" s="8">
         <v>3</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I62" s="13"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC62" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
-    </row>
-    <row r="63" spans="1:33">
-      <c r="A63" s="9">
+      <c r="AH62" s="3"/>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" s="8">
         <v>10056</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D63" s="9">
+      <c r="C63" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="10">
+        <v>4</v>
+      </c>
+      <c r="E63" s="8">
         <v>3</v>
       </c>
-      <c r="E63" s="9">
+      <c r="F63" s="8">
         <v>3</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I63" s="13"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC63" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
-    </row>
-    <row r="64" spans="1:33">
-      <c r="A64" s="9">
+      <c r="AH63" s="3"/>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" s="8">
         <v>10057</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="D64" s="13">
+        <v>2</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="K64" s="8">
         <v>105</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L64" s="3" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O64" s="3">
         <v>301</v>
       </c>
-      <c r="O64" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="P64" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC64" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
-    </row>
-    <row r="65" ht="42" spans="1:33">
-      <c r="A65" s="9">
+      <c r="AH64" s="3"/>
+    </row>
+    <row r="65" ht="42" spans="1:34">
+      <c r="A65" s="8">
         <v>10058</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="D65" s="13">
+        <v>2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>327</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="I65" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="K65" s="8">
         <v>105</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="N65" s="3">
+        <v>324</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O65" s="3">
         <v>301</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="P65" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S65" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC65" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
-    </row>
-    <row r="66" spans="1:33">
-      <c r="A66" s="9">
+      <c r="AH65" s="3"/>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" s="8">
         <v>10059</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D66" s="13">
+        <v>2</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="K66" s="8">
+        <v>105</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="J66" s="9">
-        <v>105</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O66" s="3">
         <v>301</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="P66" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC66" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="6"/>
+      <c r="AH66" s="3"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -6045,13 +6252,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.6272727272727" customWidth="1"/>
     <col min="2" max="2" width="13.1272727272727" customWidth="1"/>
@@ -6060,7 +6267,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6071,10 +6278,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -6082,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6091,6 +6298,21 @@
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6098,158 +6320,389 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>348</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>352</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>354</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>356</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>358</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>360</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>362</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>364</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>366</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>302</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>368</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>401</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>370</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>901</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E$1:H$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,Cards!A:B,2,FALSE)</f>
+        <v>向日葵</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10001</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,Cards!A:B,2,FALSE)</f>
+        <v>向日葵</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10001</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,Cards!A:B,2,FALSE)</f>
+        <v>向日葵</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10002</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,Cards!A:B,2,FALSE)</f>
+        <v>豌豆射手</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10002</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,Cards!A:B,2,FALSE)</f>
+        <v>豌豆射手</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10002</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,Cards!A:B,2,FALSE)</f>
+        <v>豌豆射手</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10025</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,Cards!A:B,2,FALSE)</f>
+        <v>磁带</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10032</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,Cards!A:B,2,FALSE)</f>
+        <v>足球小帅</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/docs/卡牌表.xlsx
+++ b/doc/docs/卡牌表.xlsx
@@ -4,19 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
     <sheet name="CardEffects" sheetId="2" r:id="rId2"/>
-    <sheet name="IniCard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="379">
   <si>
     <t>Cards</t>
   </si>
@@ -33,6 +45,9 @@
     <t>englishName#string</t>
   </si>
   <si>
+    <t>level#int</t>
+  </si>
+  <si>
     <t>quality#int</t>
   </si>
   <si>
@@ -177,9 +192,6 @@
     <t>[10002]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>豌豆射手</t>
   </si>
   <si>
@@ -1041,6 +1053,30 @@
     <t>effect#string</t>
   </si>
   <si>
+    <t>priority#int</t>
+  </si>
+  <si>
+    <t>grow#int</t>
+  </si>
+  <si>
+    <t>ext#int</t>
+  </si>
+  <si>
+    <t>destory#int</t>
+  </si>
+  <si>
+    <t>gen#int</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果名称</t>
+  </si>
+  <si>
+    <t>固定数值</t>
+  </si>
+  <si>
     <t>成长</t>
   </si>
   <si>
@@ -1053,12 +1089,6 @@
     <t>生成</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>固定数值</t>
-  </si>
-  <si>
     <t>临接收益</t>
   </si>
   <si>
@@ -1135,21 +1165,12 @@
   </si>
   <si>
     <t>场上每存在除自身之外的id=[1]的卡牌，本回合收益+[存在数量]*[0]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>cardid</t>
-  </si>
-  <si>
-    <t>cardname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1186,34 +1207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1227,14 +1220,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,6 +1259,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,7 +1324,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,55 +1366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,31 +1390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,6 +1426,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1471,7 +1450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,6 +1534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1536,21 +1557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1583,6 +1589,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,148 +1662,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1847,52 +1868,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2157,21 +2178,21 @@
   <sheetPr/>
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.62727272727273" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.8727272727273" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.4545454545455" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.3727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.4583333333333" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" customWidth="1"/>
-    <col min="8" max="8" width="49.8181818181818" style="3" customWidth="1"/>
-    <col min="9" max="9" width="71.6363636363636" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.9090909090909" style="5" customWidth="1"/>
+    <col min="8" max="8" width="49.8166666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.6333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="5" customWidth="1"/>
     <col min="11" max="23" width="13" style="3" customWidth="1"/>
     <col min="24" max="29" width="9" style="3"/>
   </cols>
@@ -2194,60 +2215,62 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2323,70 +2346,70 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -2394,10 +2417,10 @@
         <v>10001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2409,47 +2432,27 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="8">
         <v>101</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -2496,27 +2499,7 @@
       <c r="M9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -2563,27 +2546,7 @@
       <c r="M10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
@@ -2627,30 +2590,8 @@
       <c r="L11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
@@ -2692,32 +2633,12 @@
         <v>901</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -2755,32 +2676,12 @@
         <v>901</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -2822,32 +2723,12 @@
         <v>101</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2889,32 +2770,12 @@
         <v>101</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2956,32 +2817,12 @@
         <v>101</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -3023,32 +2864,12 @@
         <v>101</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
@@ -3080,33 +2901,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="13"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
@@ -3138,33 +2935,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="13"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
@@ -3196,33 +2969,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="13"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -3254,33 +3003,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="13"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -3312,33 +3037,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="13"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
@@ -3385,27 +3086,7 @@
       <c r="M23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
@@ -3452,27 +3133,7 @@
       <c r="M24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
@@ -3519,27 +3180,7 @@
       <c r="M25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -3582,27 +3223,7 @@
       <c r="M26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -3646,30 +3267,8 @@
       <c r="L27" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
@@ -3701,33 +3300,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="13"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
@@ -3759,33 +3334,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="13"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -3817,33 +3368,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="13"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
@@ -3875,33 +3402,9 @@
       <c r="H31" s="7"/>
       <c r="I31" s="13"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
@@ -3933,33 +3436,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="13"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
@@ -3991,33 +3470,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="13"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
@@ -4064,27 +3519,7 @@
       <c r="M34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
@@ -4131,27 +3566,7 @@
       <c r="M35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -4198,27 +3613,7 @@
       <c r="M36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -4253,33 +3648,9 @@
         <v>180</v>
       </c>
       <c r="K37" s="7"/>
-      <c r="L37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
@@ -4326,27 +3697,7 @@
       <c r="M38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
@@ -4388,32 +3739,12 @@
         <v>201</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
@@ -4455,32 +3786,12 @@
         <v>202</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
@@ -4522,35 +3833,20 @@
         <v>201</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N41" s="3"/>
       <c r="O41" s="3">
         <v>103</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
@@ -4589,36 +3885,17 @@
         <v>211</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="3">
         <v>103</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
@@ -4660,35 +3937,20 @@
         <v>104</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N43" s="3"/>
       <c r="O43" s="3">
         <v>103</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P43" s="3"/>
       <c r="Q43" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
@@ -4727,36 +3989,17 @@
         <v>221</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="3">
         <v>103</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
@@ -4795,36 +4038,17 @@
         <v>221</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="3">
         <v>103</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
@@ -4868,30 +4092,8 @@
       <c r="L46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
@@ -4935,30 +4137,8 @@
       <c r="L47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
@@ -5002,30 +4182,8 @@
       <c r="L48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
@@ -5069,30 +4227,8 @@
       <c r="L49" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
@@ -5136,30 +4272,8 @@
       <c r="L50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
@@ -5201,32 +4315,10 @@
         <v>301</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
@@ -5267,36 +4359,19 @@
       <c r="K52" s="8">
         <v>204</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N52" s="3"/>
       <c r="O52" s="3">
         <v>301</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
@@ -5337,36 +4412,19 @@
       <c r="K53" s="8">
         <v>204</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N53" s="3"/>
       <c r="O53" s="3">
         <v>301</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
@@ -5407,36 +4465,24 @@
       <c r="K54" s="8">
         <v>204</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N54" s="3"/>
       <c r="O54" s="3">
         <v>301</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R54" s="3"/>
       <c r="S54" s="3">
         <v>302</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
       <c r="V54" s="3" t="s">
         <v>279</v>
       </c>
@@ -5480,36 +4526,19 @@
       <c r="K55" s="8">
         <v>204</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N55" s="3"/>
       <c r="O55" s="3">
         <v>301</v>
       </c>
-      <c r="P55" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="P55" s="3"/>
       <c r="Q55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="R55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
@@ -5550,32 +4579,12 @@
       <c r="K56" s="8">
         <v>203</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
@@ -5618,32 +4627,12 @@
         <v>401</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
@@ -5675,33 +4664,9 @@
       <c r="H58" s="7"/>
       <c r="I58" s="13"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
@@ -5733,33 +4698,9 @@
       <c r="H59" s="7"/>
       <c r="I59" s="13"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
@@ -5791,33 +4732,9 @@
       <c r="H60" s="7"/>
       <c r="I60" s="13"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
@@ -5849,33 +4766,9 @@
       <c r="H61" s="7"/>
       <c r="I61" s="13"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
@@ -5907,33 +4800,9 @@
       <c r="H62" s="7"/>
       <c r="I62" s="13"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
@@ -5965,33 +4834,9 @@
       <c r="H63" s="7"/>
       <c r="I63" s="13"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
@@ -6032,9 +4877,7 @@
       <c r="K64" s="8">
         <v>105</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
         <v>323</v>
       </c>
@@ -6047,28 +4890,15 @@
       <c r="P64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
     </row>
-    <row r="65" ht="42" spans="1:34">
+    <row r="65" ht="27" spans="1:34">
       <c r="A65" s="8">
         <v>10058</v>
       </c>
@@ -6102,9 +4932,7 @@
       <c r="K65" s="8">
         <v>105</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
         <v>324</v>
       </c>
@@ -6117,21 +4945,8 @@
       <c r="P65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V65" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
@@ -6172,9 +4987,7 @@
       <c r="K66" s="8">
         <v>105</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
         <v>331</v>
       </c>
@@ -6187,21 +5000,8 @@
       <c r="P66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -6252,17 +5052,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.6272727272727" customWidth="1"/>
-    <col min="2" max="2" width="13.1272727272727" customWidth="1"/>
-    <col min="3" max="3" width="57.8727272727273" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6273,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6283,6 +5085,21 @@
       <c r="C2" t="s">
         <v>340</v>
       </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
@@ -6299,31 +5116,46 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>0</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6331,10 +5163,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6348,10 +5180,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6365,10 +5197,10 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6385,10 +5217,10 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6405,10 +5237,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -6420,144 +5252,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>302</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>302</v>
+        <v>901</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>401</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>901</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="D1:D4 D6:D21 D23 D25:D1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6567,7 +5399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E$1:H$1048576">
+  <conditionalFormatting sqref="E1:H4 E6:H18 E21:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6581,128 +5413,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10001</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,Cards!A:B,2,FALSE)</f>
-        <v>向日葵</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10001</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,Cards!A:B,2,FALSE)</f>
-        <v>向日葵</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10001</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,Cards!A:B,2,FALSE)</f>
-        <v>向日葵</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>10002</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,Cards!A:B,2,FALSE)</f>
-        <v>豌豆射手</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>10002</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,Cards!A:B,2,FALSE)</f>
-        <v>豌豆射手</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10002</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,Cards!A:B,2,FALSE)</f>
-        <v>豌豆射手</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10025</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,Cards!A:B,2,FALSE)</f>
-        <v>磁带</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>10032</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,Cards!A:B,2,FALSE)</f>
-        <v>足球小帅</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>